--- a/Jogos_do_Dia/2023-12-25_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-25_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>3.7</v>
       </c>
       <c r="J2" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="K2" t="n">
         <v>3.77</v>
       </c>
       <c r="L2" t="n">
-        <v>3.87</v>
+        <v>3.46</v>
       </c>
       <c r="M2" t="n">
         <v>1.32</v>
@@ -718,10 +718,10 @@
         <v>4.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="T2" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="U2" t="n">
         <v>1.57</v>
@@ -830,13 +830,13 @@
         <v>3.7</v>
       </c>
       <c r="J3" t="n">
-        <v>2.51</v>
+        <v>2.03</v>
       </c>
       <c r="K3" t="n">
-        <v>3.5</v>
+        <v>5.4</v>
       </c>
       <c r="L3" t="n">
-        <v>2.82</v>
+        <v>2.32</v>
       </c>
       <c r="M3" t="n">
         <v>1.37</v>
@@ -857,10 +857,10 @@
         <v>3.61</v>
       </c>
       <c r="S3" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="U3" t="n">
         <v>1.73</v>
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
@@ -972,49 +972,49 @@
         <v>2.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="L4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="S4" t="n">
-        <v>2.31</v>
+        <v>2.23</v>
       </c>
       <c r="T4" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Z4" t="n">
         <v>1.33</v>
@@ -1032,43 +1032,43 @@
         <v>3.02</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="5">
@@ -1108,13 +1108,13 @@
         <v>2.85</v>
       </c>
       <c r="J5" t="n">
-        <v>2.83</v>
+        <v>2.43</v>
       </c>
       <c r="K5" t="n">
-        <v>3.42</v>
+        <v>5.57</v>
       </c>
       <c r="L5" t="n">
-        <v>2.53</v>
+        <v>1.93</v>
       </c>
       <c r="M5" t="n">
         <v>1.35</v>
@@ -1135,10 +1135,10 @@
         <v>4.12</v>
       </c>
       <c r="S5" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="T5" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
         <v>1.62</v>
@@ -1213,7 +1213,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1225,134 +1225,134 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Baladiyyat Al Mehalla</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Beşiktaş</t>
+          <t>National Bank of Egypt</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="H6" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="I6" t="n">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
-        <v>3.85</v>
+        <v>2.58</v>
       </c>
       <c r="K6" t="n">
-        <v>3.75</v>
+        <v>3.12</v>
       </c>
       <c r="L6" t="n">
-        <v>1.94</v>
+        <v>2.63</v>
       </c>
       <c r="M6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X6" t="n">
         <v>1.32</v>
       </c>
-      <c r="N6" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P6" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.3</v>
-      </c>
       <c r="Y6" t="n">
-        <v>1.32</v>
+        <v>1.52</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.71</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AB6" t="n">
         <v>1.25</v>
       </c>
-      <c r="AB6" t="n">
-        <v>1.35</v>
-      </c>
       <c r="AC6" t="n">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.55</v>
+        <v>2.72</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1364,128 +1364,128 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Baladiyyat Al Mehalla</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>Beşiktaş</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H7" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="J7" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L7" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>4.12</v>
       </c>
       <c r="S7" t="n">
-        <v>2.04</v>
+        <v>1.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="V7" t="n">
-        <v>1.87</v>
+        <v>2.25</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.72</v>
+        <v>2.55</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-12-25_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-25_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>3.7</v>
       </c>
       <c r="J2" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="K2" t="n">
-        <v>3.77</v>
+        <v>3.55</v>
       </c>
       <c r="L2" t="n">
-        <v>3.46</v>
+        <v>3.05</v>
       </c>
       <c r="M2" t="n">
         <v>1.32</v>
@@ -718,10 +718,10 @@
         <v>4.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T2" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="U2" t="n">
         <v>1.57</v>
@@ -830,13 +830,13 @@
         <v>3.7</v>
       </c>
       <c r="J3" t="n">
-        <v>2.03</v>
+        <v>2.23</v>
       </c>
       <c r="K3" t="n">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="L3" t="n">
-        <v>2.32</v>
+        <v>2.68</v>
       </c>
       <c r="M3" t="n">
         <v>1.37</v>
@@ -857,7 +857,7 @@
         <v>3.61</v>
       </c>
       <c r="S3" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="T3" t="n">
         <v>1.83</v>
@@ -960,19 +960,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
         <v>1.91</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
         <v>2.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
         <v>3.3</v>
@@ -1002,10 +1002,10 @@
         <v>1.58</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
         <v>1.3</v>
@@ -1090,37 +1090,37 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ankaragücü</t>
+          <t>Beşiktaş</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I5" t="n">
-        <v>2.85</v>
+        <v>2.55</v>
       </c>
       <c r="J5" t="n">
-        <v>2.43</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
-        <v>5.57</v>
+        <v>3.55</v>
       </c>
       <c r="L5" t="n">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="M5" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="N5" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O5" t="n">
         <v>1.05</v>
@@ -1135,85 +1135,85 @@
         <v>4.12</v>
       </c>
       <c r="S5" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W5" t="n">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="X5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y5" t="n">
         <v>1.32</v>
       </c>
-      <c r="Y5" t="n">
-        <v>1.42</v>
-      </c>
       <c r="Z5" t="n">
-        <v>0.71</v>
+        <v>1.71</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.05</v>
+        <v>1.35</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.29</v>
+        <v>2.55</v>
       </c>
       <c r="AE5" t="n">
-        <v>2.08</v>
+        <v>2.33</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.03</v>
+        <v>1.82</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.76</v>
+        <v>3.28</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.08</v>
+        <v>2.35</v>
       </c>
       <c r="AL5" t="n">
-        <v>2.17</v>
+        <v>1.92</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.68</v>
+        <v>1.88</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.91</v>
+        <v>2.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AP5" t="n">
-        <v>4.15</v>
+        <v>3.34</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1225,134 +1225,134 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Baladiyyat Al Mehalla</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>Ankaragücü</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="I6" t="n">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="J6" t="n">
-        <v>2.58</v>
+        <v>2.65</v>
       </c>
       <c r="K6" t="n">
-        <v>3.12</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
-        <v>2.63</v>
+        <v>2.23</v>
       </c>
       <c r="M6" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="N6" t="n">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="O6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P6" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="R6" t="n">
-        <v>3.1</v>
+        <v>4.12</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T6" t="n">
-        <v>1.72</v>
+        <v>2.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="V6" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="X6" t="n">
         <v>1.32</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.75</v>
+        <v>1.14</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.72</v>
+        <v>2.29</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1364,128 +1364,128 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Baladiyyat Al Mehalla</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Beşiktaş</t>
+          <t>National Bank of Egypt</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="I7" t="n">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="J7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R7" t="n">
         <v>3.1</v>
       </c>
-      <c r="K7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="S7" t="n">
         <v>2</v>
       </c>
-      <c r="M7" t="n">
+      <c r="T7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X7" t="n">
         <v>1.32</v>
       </c>
-      <c r="N7" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P7" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R7" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="S7" t="n">
+      <c r="Y7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM7" t="n">
         <v>1.6</v>
       </c>
-      <c r="T7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="AN7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>1.25</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>1.26</v>
       </c>
     </row>
   </sheetData>
